--- a/example/simple1.xlsx
+++ b/example/simple1.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>Goexcel Sample Report-Sample1</t>
+    <t>Goexcel Sample Report-Simple1</t>
   </si>
   <si>
     <t>Date</t>

--- a/example/simple1.xlsx
+++ b/example/simple1.xlsx
@@ -650,7 +650,7 @@
       <c r="G1" s="1" t="s"/>
       <c r="H1" s="1" t="s"/>
       <c r="I1" s="2">
-        <v>42390</v>
+        <v>42392</v>
       </c>
     </row>
     <row r="2">

--- a/example/simple1.xlsx
+++ b/example/simple1.xlsx
@@ -200,27 +200,27 @@
     </border>
     <border>
       <left style="medium"/>
-      <right style="hair"/>
+      <right style="thin"/>
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
-      <left style="hair"/>
-      <right style="hair"/>
+      <left style="thin"/>
+      <right style="thin"/>
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
-      <left style="hair"/>
+      <left style="thin"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="8">
@@ -650,7 +650,7 @@
       <c r="G1" s="1" t="s"/>
       <c r="H1" s="1" t="s"/>
       <c r="I1" s="2">
-        <v>42392</v>
+        <v>42393</v>
       </c>
     </row>
     <row r="2">
